--- a/ha-asset/01_design/95_API呼び出し一覧.xlsx
+++ b/ha-asset/01_design/95_API呼び出し一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38448152-2DF0-4EFA-A0D9-DCDD540AF8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2336C4-B47B-4098-B695-5A8A6722B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E89E8728-F76D-44C3-B2B3-6746749357CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E89E8728-F76D-44C3-B2B3-6746749357CD}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>更新日時</t>
   </si>
@@ -423,10 +423,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ヘルスチェックAPIバッチ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>健康情報ファイル登録バッチ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -587,19 +583,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>健康情報蓄積API</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チクセキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>健康管理API</t>
     <rPh sb="0" eb="2">
       <t>ケンコウ</t>
@@ -636,6 +619,14 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Track API</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヘルスチェックバッチ</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -654,6 +645,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1115,6 +1107,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,25 +1127,143 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1182,135 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1652,7 +1644,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
@@ -1723,37 +1715,37 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
@@ -1761,34 +1753,34 @@
       <c r="B4" s="11">
         <v>44843</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="13"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="10"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
@@ -1796,615 +1788,615 @@
       <c r="B5" s="11">
         <v>45809</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="13"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="10"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="10"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="10"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="10"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="10"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="10"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="10"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="13"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="10"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="10"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="10"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="10"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="10"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="10"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="10"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="13"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="10"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -2467,6 +2459,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:Z25"/>
@@ -2476,66 +2528,6 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,11 +2539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7EDB10-C77B-437A-B072-DA867FFB44FB}">
   <dimension ref="A1:DR44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="4" topLeftCell="O14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75"/>
@@ -2559,7 +2551,9 @@
     <col min="1" max="1" width="3.375" style="6"/>
     <col min="2" max="2" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="3.375" style="6"/>
-    <col min="15" max="104" width="3.75" style="6" customWidth="1"/>
+    <col min="15" max="23" width="3.75" style="6" customWidth="1"/>
+    <col min="24" max="29" width="3.75" style="6" hidden="1" customWidth="1"/>
+    <col min="30" max="104" width="3.75" style="6" customWidth="1"/>
     <col min="105" max="16384" width="3.375" style="6"/>
   </cols>
   <sheetData>
@@ -2691,352 +2685,352 @@
       <c r="DR1" s="4"/>
     </row>
     <row r="3" spans="1:122" ht="18.75" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="44" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="60"/>
-      <c r="BV3" s="60"/>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="60"/>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="60"/>
-      <c r="CB3" s="60"/>
-      <c r="CC3" s="60"/>
-      <c r="CD3" s="60"/>
-      <c r="CE3" s="60"/>
-      <c r="CF3" s="60"/>
-      <c r="CG3" s="60"/>
-      <c r="CH3" s="60"/>
-      <c r="CI3" s="60"/>
-      <c r="CJ3" s="60"/>
-      <c r="CK3" s="60"/>
-      <c r="CL3" s="60"/>
-      <c r="CM3" s="60"/>
-      <c r="CN3" s="60"/>
-      <c r="CO3" s="60"/>
-      <c r="CP3" s="60"/>
-      <c r="CQ3" s="60"/>
-      <c r="CR3" s="60"/>
-      <c r="CS3" s="60"/>
-      <c r="CT3" s="60"/>
-      <c r="CU3" s="60"/>
-      <c r="CV3" s="60"/>
-      <c r="CW3" s="61"/>
-      <c r="CX3" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="CY3" s="64"/>
-      <c r="CZ3" s="65"/>
-      <c r="DA3" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="DB3" s="28"/>
-      <c r="DC3" s="28"/>
-      <c r="DD3" s="28"/>
-      <c r="DE3" s="28"/>
-      <c r="DF3" s="28"/>
-      <c r="DG3" s="28"/>
-      <c r="DH3" s="28"/>
-      <c r="DI3" s="28"/>
-      <c r="DJ3" s="28"/>
-      <c r="DK3" s="28"/>
-      <c r="DL3" s="28"/>
-      <c r="DM3" s="28"/>
-      <c r="DN3" s="28"/>
-      <c r="DO3" s="28"/>
-      <c r="DP3" s="28"/>
-      <c r="DQ3" s="29"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="32"/>
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="33"/>
+      <c r="CX3" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY3" s="35"/>
+      <c r="CZ3" s="36"/>
+      <c r="DA3" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="DB3" s="71"/>
+      <c r="DC3" s="71"/>
+      <c r="DD3" s="71"/>
+      <c r="DE3" s="71"/>
+      <c r="DF3" s="71"/>
+      <c r="DG3" s="71"/>
+      <c r="DH3" s="71"/>
+      <c r="DI3" s="71"/>
+      <c r="DJ3" s="71"/>
+      <c r="DK3" s="71"/>
+      <c r="DL3" s="71"/>
+      <c r="DM3" s="71"/>
+      <c r="DN3" s="71"/>
+      <c r="DO3" s="71"/>
+      <c r="DP3" s="71"/>
+      <c r="DQ3" s="72"/>
     </row>
     <row r="4" spans="1:122" ht="45" customHeight="1">
-      <c r="B4" s="55"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="45" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45" t="s">
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45" t="s">
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="43" t="s">
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43" t="s">
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43" t="s">
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43" t="s">
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32" t="s">
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32" t="s">
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32" t="s">
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32" t="s">
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32" t="s">
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32" t="s">
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32" t="s">
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32" t="s">
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32" t="s">
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32" t="s">
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32" t="s">
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32" t="s">
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="32"/>
-      <c r="CL4" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32" t="s">
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="CY4" s="62"/>
-      <c r="CZ4" s="62"/>
-      <c r="DA4" s="30"/>
-      <c r="DB4" s="30"/>
-      <c r="DC4" s="30"/>
-      <c r="DD4" s="30"/>
-      <c r="DE4" s="30"/>
-      <c r="DF4" s="30"/>
-      <c r="DG4" s="30"/>
-      <c r="DH4" s="30"/>
-      <c r="DI4" s="30"/>
-      <c r="DJ4" s="30"/>
-      <c r="DK4" s="30"/>
-      <c r="DL4" s="30"/>
-      <c r="DM4" s="30"/>
-      <c r="DN4" s="30"/>
-      <c r="DO4" s="30"/>
-      <c r="DP4" s="30"/>
-      <c r="DQ4" s="31"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY4" s="61"/>
+      <c r="CZ4" s="61"/>
+      <c r="DA4" s="73"/>
+      <c r="DB4" s="73"/>
+      <c r="DC4" s="73"/>
+      <c r="DD4" s="73"/>
+      <c r="DE4" s="73"/>
+      <c r="DF4" s="73"/>
+      <c r="DG4" s="73"/>
+      <c r="DH4" s="73"/>
+      <c r="DI4" s="73"/>
+      <c r="DJ4" s="73"/>
+      <c r="DK4" s="73"/>
+      <c r="DL4" s="73"/>
+      <c r="DM4" s="73"/>
+      <c r="DN4" s="73"/>
+      <c r="DO4" s="73"/>
+      <c r="DP4" s="73"/>
+      <c r="DQ4" s="74"/>
     </row>
     <row r="5" spans="1:122">
       <c r="B5" s="7">
         <f>ROW()-ROW($B$4)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="53" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="58"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -3144,26 +3138,26 @@
         <f t="shared" ref="B6:B44" si="0">ROW()-ROW($B$4)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="53" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
@@ -3271,26 +3265,26 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="53" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
@@ -3398,26 +3392,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="53" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
@@ -3525,28 +3519,28 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="53" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
@@ -3554,12 +3548,12 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
@@ -3658,26 +3652,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="53" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
@@ -3785,26 +3779,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="53" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
@@ -3912,26 +3906,26 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="33" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
@@ -4039,26 +4033,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="33" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
@@ -4166,28 +4160,28 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="33" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
@@ -4195,12 +4189,12 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE14" s="17"/>
       <c r="AF14" s="17"/>
@@ -4299,26 +4293,26 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="53" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -4426,26 +4420,26 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="53" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -4553,26 +4547,26 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="53" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -4680,26 +4674,26 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="53" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -4807,26 +4801,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="53" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="30"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -4934,26 +4928,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="53" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="58"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -5061,26 +5055,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="53" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="58"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -5188,26 +5182,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="53" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="58"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="30"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -5315,26 +5309,26 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="53" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="30"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -5442,26 +5436,26 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="58"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="30"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -5569,28 +5563,26 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="33" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="30"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
@@ -5598,7 +5590,7 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
@@ -5606,7 +5598,7 @@
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
       <c r="AG25" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH25" s="17"/>
       <c r="AI25" s="17"/>
@@ -5702,26 +5694,26 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="33" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="30"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
@@ -5829,26 +5821,26 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="33" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="58"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="30"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
@@ -5856,7 +5848,7 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
@@ -5867,7 +5859,7 @@
       <c r="AH27" s="17"/>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK27" s="17"/>
       <c r="AL27" s="17"/>
@@ -5960,26 +5952,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="58"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="30"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
@@ -6087,35 +6079,35 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
@@ -6192,7 +6184,7 @@
       <c r="CS29" s="17"/>
       <c r="CT29" s="17"/>
       <c r="CU29" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CV29" s="17"/>
       <c r="CW29" s="17"/>
@@ -6222,28 +6214,28 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="58"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
@@ -6251,12 +6243,12 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE30" s="17"/>
       <c r="AF30" s="17"/>
@@ -6355,26 +6347,26 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="58"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="30"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
@@ -6482,26 +6474,26 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="58"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="30"/>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
@@ -6584,7 +6576,7 @@
       <c r="CV32" s="17"/>
       <c r="CW32" s="17"/>
       <c r="CX32" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CY32" s="17"/>
       <c r="CZ32" s="17"/>
@@ -6611,28 +6603,28 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="58"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
@@ -6740,26 +6732,26 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="33" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="58"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
@@ -6788,17 +6780,17 @@
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
       <c r="AV34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
       <c r="AY34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AZ34" s="17"/>
       <c r="BA34" s="17"/>
       <c r="BB34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC34" s="17"/>
       <c r="BD34" s="17"/>
@@ -6873,26 +6865,26 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="30"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
@@ -6912,12 +6904,12 @@
       <c r="AK35" s="17"/>
       <c r="AL35" s="17"/>
       <c r="AM35" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
       <c r="AP35" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AQ35" s="17"/>
       <c r="AR35" s="17"/>
@@ -7004,26 +6996,26 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="58"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="30"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
@@ -7049,7 +7041,7 @@
       <c r="AQ36" s="17"/>
       <c r="AR36" s="17"/>
       <c r="AS36" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
@@ -7133,26 +7125,26 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="58"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="30"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -7160,12 +7152,12 @@
       <c r="Y37" s="17"/>
       <c r="Z37" s="17"/>
       <c r="AA37" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB37" s="17"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE37" s="17"/>
       <c r="AF37" s="17"/>
@@ -7230,12 +7222,12 @@
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CP37" s="17"/>
       <c r="CQ37" s="17"/>
       <c r="CR37" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CS37" s="17"/>
       <c r="CT37" s="17"/>
@@ -7268,26 +7260,26 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="58"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
@@ -7349,22 +7341,22 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
       <c r="CC38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CD38" s="17"/>
       <c r="CE38" s="17"/>
       <c r="CF38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CG38" s="17"/>
       <c r="CH38" s="17"/>
       <c r="CI38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CJ38" s="17"/>
       <c r="CK38" s="17"/>
       <c r="CL38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
@@ -7403,26 +7395,26 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="58"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="30"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -7472,22 +7464,22 @@
       <c r="BO39" s="17"/>
       <c r="BP39" s="17"/>
       <c r="BQ39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BR39" s="17"/>
       <c r="BS39" s="17"/>
       <c r="BT39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BU39" s="17"/>
       <c r="BV39" s="17"/>
       <c r="BW39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BX39" s="17"/>
       <c r="BY39" s="17"/>
       <c r="BZ39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CA39" s="17"/>
       <c r="CB39" s="17"/>
@@ -7538,26 +7530,26 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="58"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="30"/>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
@@ -7598,7 +7590,7 @@
       <c r="BF40" s="17"/>
       <c r="BG40" s="17"/>
       <c r="BH40" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BI40" s="17"/>
       <c r="BJ40" s="17"/>
@@ -7667,26 +7659,26 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="30"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -7724,7 +7716,7 @@
       <c r="BC41" s="17"/>
       <c r="BD41" s="17"/>
       <c r="BE41" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF41" s="17"/>
       <c r="BG41" s="17"/>
@@ -7732,7 +7724,7 @@
       <c r="BI41" s="17"/>
       <c r="BJ41" s="17"/>
       <c r="BK41" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL41" s="17"/>
       <c r="BM41" s="17"/>
@@ -7798,24 +7790,24 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="58"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="30"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
       <c r="W42" s="17"/>
@@ -7923,24 +7915,24 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="58"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
       <c r="W43" s="17"/>
@@ -8048,24 +8040,24 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="58"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="30"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
       <c r="W44" s="17"/>
@@ -8248,109 +8240,1195 @@
     <filterColumn colId="105" showButton="0"/>
   </autoFilter>
   <mergeCells count="1324">
-    <mergeCell ref="BQ32:BS32"/>
-    <mergeCell ref="BT32:BV32"/>
-    <mergeCell ref="BW32:BY32"/>
-    <mergeCell ref="BZ32:CB32"/>
-    <mergeCell ref="CC32:CE32"/>
-    <mergeCell ref="CF32:CH32"/>
-    <mergeCell ref="CI32:CK32"/>
-    <mergeCell ref="CL32:CN32"/>
-    <mergeCell ref="CO32:CQ32"/>
-    <mergeCell ref="CR32:CT32"/>
-    <mergeCell ref="CU32:CW32"/>
-    <mergeCell ref="CX32:CZ32"/>
-    <mergeCell ref="DA32:DQ32"/>
-    <mergeCell ref="C29:G32"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="AM3:CW3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AI32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AV32:AX32"/>
-    <mergeCell ref="AY32:BA32"/>
-    <mergeCell ref="BB32:BD32"/>
-    <mergeCell ref="BE32:BG32"/>
-    <mergeCell ref="BH32:BJ32"/>
-    <mergeCell ref="BK32:BM32"/>
-    <mergeCell ref="BN32:BP32"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="CC28:CE28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AO28"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="AV28:AX28"/>
+    <mergeCell ref="CO39:CQ39"/>
+    <mergeCell ref="CR39:CT39"/>
+    <mergeCell ref="CU39:CW39"/>
+    <mergeCell ref="CX39:CZ39"/>
+    <mergeCell ref="DA39:DQ39"/>
+    <mergeCell ref="BE39:BG39"/>
+    <mergeCell ref="BH39:BJ39"/>
+    <mergeCell ref="BK39:BM39"/>
+    <mergeCell ref="BN39:BP39"/>
+    <mergeCell ref="BQ39:BS39"/>
+    <mergeCell ref="BT39:BV39"/>
+    <mergeCell ref="BW39:BY39"/>
+    <mergeCell ref="BZ39:CB39"/>
+    <mergeCell ref="CC39:CE39"/>
+    <mergeCell ref="DA28:DQ28"/>
+    <mergeCell ref="C5:G28"/>
+    <mergeCell ref="DA3:DQ4"/>
+    <mergeCell ref="CF28:CH28"/>
+    <mergeCell ref="CI28:CK28"/>
+    <mergeCell ref="CL28:CN28"/>
+    <mergeCell ref="CO28:CQ28"/>
+    <mergeCell ref="CR28:CT28"/>
+    <mergeCell ref="CU28:CW28"/>
+    <mergeCell ref="CX28:CZ28"/>
+    <mergeCell ref="BE28:BG28"/>
+    <mergeCell ref="BH28:BJ28"/>
+    <mergeCell ref="BK28:BM28"/>
+    <mergeCell ref="BN28:BP28"/>
+    <mergeCell ref="BQ28:BS28"/>
+    <mergeCell ref="BT28:BV28"/>
+    <mergeCell ref="BW28:BY28"/>
+    <mergeCell ref="BZ28:CB28"/>
+    <mergeCell ref="AJ39:AL39"/>
+    <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="AP39:AR39"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="AV39:AX39"/>
+    <mergeCell ref="AY39:BA39"/>
+    <mergeCell ref="BB39:BD39"/>
+    <mergeCell ref="BB37:BD37"/>
+    <mergeCell ref="BB38:BD38"/>
+    <mergeCell ref="BB40:BD40"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="BB42:BD42"/>
+    <mergeCell ref="BB43:BD43"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="BB26:BD26"/>
+    <mergeCell ref="BB27:BD27"/>
+    <mergeCell ref="BB29:BD29"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="BB31:BD31"/>
+    <mergeCell ref="BB33:BD33"/>
+    <mergeCell ref="BB34:BD34"/>
+    <mergeCell ref="BB35:BD35"/>
+    <mergeCell ref="BB36:BD36"/>
+    <mergeCell ref="BB28:BD28"/>
+    <mergeCell ref="AY43:BA43"/>
+    <mergeCell ref="AY44:BA44"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="AP43:AR43"/>
+    <mergeCell ref="AM44:AO44"/>
+    <mergeCell ref="AP44:AR44"/>
+    <mergeCell ref="AM38:AO38"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AY40:BA40"/>
+    <mergeCell ref="AY41:BA41"/>
+    <mergeCell ref="AY42:BA42"/>
+    <mergeCell ref="AY24:BA24"/>
+    <mergeCell ref="AY25:BA25"/>
+    <mergeCell ref="AY26:BA26"/>
+    <mergeCell ref="AY27:BA27"/>
+    <mergeCell ref="AY29:BA29"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="AY31:BA31"/>
+    <mergeCell ref="AY33:BA33"/>
+    <mergeCell ref="AY34:BA34"/>
+    <mergeCell ref="AY28:BA28"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BB7:BD7"/>
+    <mergeCell ref="BB8:BD8"/>
+    <mergeCell ref="BB9:BD9"/>
+    <mergeCell ref="BB10:BD10"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BB12:BD12"/>
+    <mergeCell ref="BB13:BD13"/>
+    <mergeCell ref="BB14:BD14"/>
+    <mergeCell ref="BB15:BD15"/>
+    <mergeCell ref="BB16:BD16"/>
+    <mergeCell ref="BB17:BD17"/>
+    <mergeCell ref="BB18:BD18"/>
+    <mergeCell ref="BB19:BD19"/>
+    <mergeCell ref="BB20:BD20"/>
+    <mergeCell ref="AY8:BA8"/>
+    <mergeCell ref="AY9:BA9"/>
+    <mergeCell ref="AY10:BA10"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="AY13:BA13"/>
+    <mergeCell ref="AY14:BA14"/>
+    <mergeCell ref="AY15:BA15"/>
+    <mergeCell ref="AY16:BA16"/>
+    <mergeCell ref="AY17:BA17"/>
+    <mergeCell ref="AY18:BA18"/>
+    <mergeCell ref="AY19:BA19"/>
+    <mergeCell ref="AY20:BA20"/>
+    <mergeCell ref="BB24:BD24"/>
+    <mergeCell ref="BB25:BD25"/>
+    <mergeCell ref="AY35:BA35"/>
+    <mergeCell ref="AY36:BA36"/>
+    <mergeCell ref="AM40:AO40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="AM41:AO41"/>
+    <mergeCell ref="AP41:AR41"/>
+    <mergeCell ref="AM42:AO42"/>
+    <mergeCell ref="AP42:AR42"/>
+    <mergeCell ref="AM27:AO27"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AM29:AO29"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AM30:AO30"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AM31:AO31"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AM33:AO33"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AM37:AO37"/>
+    <mergeCell ref="AP37:AR37"/>
+    <mergeCell ref="AM22:AO22"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="AM23:AO23"/>
+    <mergeCell ref="AP23:AR23"/>
+    <mergeCell ref="AM24:AO24"/>
+    <mergeCell ref="AP24:AR24"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="AP25:AR25"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="AM17:AO17"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AP20:AR20"/>
+    <mergeCell ref="AM21:AO21"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AM14:AO14"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AM15:AO15"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AM16:AO16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="CO43:CQ43"/>
+    <mergeCell ref="CR43:CT43"/>
+    <mergeCell ref="CU43:CW43"/>
+    <mergeCell ref="CX43:CZ43"/>
+    <mergeCell ref="CO44:CQ44"/>
+    <mergeCell ref="CR44:CT44"/>
+    <mergeCell ref="CU44:CW44"/>
+    <mergeCell ref="CX44:CZ44"/>
+    <mergeCell ref="CX40:CZ40"/>
+    <mergeCell ref="CO41:CQ41"/>
+    <mergeCell ref="CR41:CT41"/>
+    <mergeCell ref="CU41:CW41"/>
+    <mergeCell ref="CX41:CZ41"/>
+    <mergeCell ref="CO42:CQ42"/>
+    <mergeCell ref="CR42:CT42"/>
+    <mergeCell ref="CU42:CW42"/>
+    <mergeCell ref="CX42:CZ42"/>
+    <mergeCell ref="CX38:CZ38"/>
+    <mergeCell ref="CX35:CZ35"/>
+    <mergeCell ref="CX36:CZ36"/>
+    <mergeCell ref="CX37:CZ37"/>
+    <mergeCell ref="CX31:CZ31"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="CU40:CW40"/>
+    <mergeCell ref="CO38:CQ38"/>
+    <mergeCell ref="CR38:CT38"/>
+    <mergeCell ref="CU38:CW38"/>
+    <mergeCell ref="CO35:CQ35"/>
+    <mergeCell ref="CR35:CT35"/>
+    <mergeCell ref="CU35:CW35"/>
+    <mergeCell ref="CO36:CQ36"/>
+    <mergeCell ref="CR36:CT36"/>
+    <mergeCell ref="CU36:CW36"/>
+    <mergeCell ref="CO37:CQ37"/>
+    <mergeCell ref="CR37:CT37"/>
+    <mergeCell ref="CU37:CW37"/>
+    <mergeCell ref="CO31:CQ31"/>
+    <mergeCell ref="CR31:CT31"/>
+    <mergeCell ref="CU31:CW31"/>
+    <mergeCell ref="CO33:CQ33"/>
+    <mergeCell ref="CR33:CT33"/>
+    <mergeCell ref="CU33:CW33"/>
+    <mergeCell ref="CX33:CZ33"/>
+    <mergeCell ref="CO34:CQ34"/>
+    <mergeCell ref="CR34:CT34"/>
+    <mergeCell ref="CU34:CW34"/>
+    <mergeCell ref="CX34:CZ34"/>
+    <mergeCell ref="CR27:CT27"/>
+    <mergeCell ref="CU27:CW27"/>
+    <mergeCell ref="CX27:CZ27"/>
+    <mergeCell ref="CO29:CQ29"/>
+    <mergeCell ref="CR29:CT29"/>
+    <mergeCell ref="CU29:CW29"/>
+    <mergeCell ref="CX29:CZ29"/>
+    <mergeCell ref="CO30:CQ30"/>
+    <mergeCell ref="CR30:CT30"/>
+    <mergeCell ref="CU30:CW30"/>
+    <mergeCell ref="CX30:CZ30"/>
+    <mergeCell ref="CU19:CW19"/>
+    <mergeCell ref="CX19:CZ19"/>
+    <mergeCell ref="CO25:CQ25"/>
+    <mergeCell ref="CR25:CT25"/>
+    <mergeCell ref="CU25:CW25"/>
+    <mergeCell ref="CX25:CZ25"/>
+    <mergeCell ref="CO26:CQ26"/>
+    <mergeCell ref="CR26:CT26"/>
+    <mergeCell ref="CU26:CW26"/>
+    <mergeCell ref="CX26:CZ26"/>
+    <mergeCell ref="CO20:CQ20"/>
+    <mergeCell ref="CR20:CT20"/>
+    <mergeCell ref="CU20:CW20"/>
+    <mergeCell ref="CX20:CZ20"/>
+    <mergeCell ref="CO21:CQ21"/>
+    <mergeCell ref="CR21:CT21"/>
+    <mergeCell ref="CU21:CW21"/>
+    <mergeCell ref="CX21:CZ21"/>
+    <mergeCell ref="CO22:CQ22"/>
+    <mergeCell ref="CR22:CT22"/>
+    <mergeCell ref="CU22:CW22"/>
+    <mergeCell ref="CX22:CZ22"/>
+    <mergeCell ref="CX12:CZ12"/>
+    <mergeCell ref="CO13:CQ13"/>
+    <mergeCell ref="CR13:CT13"/>
+    <mergeCell ref="CU13:CW13"/>
+    <mergeCell ref="CX13:CZ13"/>
+    <mergeCell ref="CR14:CT14"/>
+    <mergeCell ref="CU14:CW14"/>
+    <mergeCell ref="CX14:CZ14"/>
+    <mergeCell ref="CO15:CQ15"/>
+    <mergeCell ref="CR15:CT15"/>
+    <mergeCell ref="CO4:CQ4"/>
+    <mergeCell ref="CR4:CT4"/>
+    <mergeCell ref="CU4:CW4"/>
+    <mergeCell ref="CX4:CZ4"/>
+    <mergeCell ref="CO5:CQ5"/>
+    <mergeCell ref="CR5:CT5"/>
+    <mergeCell ref="CU5:CW5"/>
+    <mergeCell ref="CX5:CZ5"/>
+    <mergeCell ref="CO6:CQ6"/>
+    <mergeCell ref="CR6:CT6"/>
+    <mergeCell ref="CU6:CW6"/>
+    <mergeCell ref="CX6:CZ6"/>
+    <mergeCell ref="CO7:CQ7"/>
+    <mergeCell ref="CR7:CT7"/>
+    <mergeCell ref="CU7:CW7"/>
+    <mergeCell ref="CX7:CZ7"/>
+    <mergeCell ref="CO8:CQ8"/>
+    <mergeCell ref="CL33:CN33"/>
+    <mergeCell ref="CC34:CE34"/>
+    <mergeCell ref="CF34:CH34"/>
+    <mergeCell ref="CI34:CK34"/>
+    <mergeCell ref="CL34:CN34"/>
+    <mergeCell ref="CC35:CE35"/>
+    <mergeCell ref="CF35:CH35"/>
+    <mergeCell ref="CI35:CK35"/>
+    <mergeCell ref="CL35:CN35"/>
+    <mergeCell ref="CI42:CK42"/>
+    <mergeCell ref="CL42:CN42"/>
+    <mergeCell ref="CC43:CE43"/>
+    <mergeCell ref="CF43:CH43"/>
+    <mergeCell ref="CI43:CK43"/>
+    <mergeCell ref="CL43:CN43"/>
+    <mergeCell ref="CC44:CE44"/>
+    <mergeCell ref="CF44:CH44"/>
+    <mergeCell ref="CI44:CK44"/>
+    <mergeCell ref="CL44:CN44"/>
+    <mergeCell ref="CC38:CE38"/>
+    <mergeCell ref="CF38:CH38"/>
+    <mergeCell ref="CI38:CK38"/>
+    <mergeCell ref="CL38:CN38"/>
+    <mergeCell ref="CC40:CE40"/>
+    <mergeCell ref="CF40:CH40"/>
+    <mergeCell ref="CI40:CK40"/>
+    <mergeCell ref="CL40:CN40"/>
+    <mergeCell ref="CF39:CH39"/>
+    <mergeCell ref="CI39:CK39"/>
+    <mergeCell ref="CL39:CN39"/>
+    <mergeCell ref="CC8:CE8"/>
+    <mergeCell ref="CF8:CH8"/>
+    <mergeCell ref="CI8:CK8"/>
+    <mergeCell ref="CL8:CN8"/>
+    <mergeCell ref="CC9:CE9"/>
+    <mergeCell ref="CF9:CH9"/>
+    <mergeCell ref="BN38:BP38"/>
+    <mergeCell ref="BQ38:BS38"/>
+    <mergeCell ref="BN40:BP40"/>
+    <mergeCell ref="BQ40:BS40"/>
+    <mergeCell ref="BN31:BP31"/>
+    <mergeCell ref="BQ31:BS31"/>
+    <mergeCell ref="CI21:CK21"/>
+    <mergeCell ref="CL21:CN21"/>
+    <mergeCell ref="CC22:CE22"/>
+    <mergeCell ref="CF22:CH22"/>
+    <mergeCell ref="CI22:CK22"/>
+    <mergeCell ref="CL22:CN22"/>
+    <mergeCell ref="CC23:CE23"/>
+    <mergeCell ref="CF23:CH23"/>
+    <mergeCell ref="CI23:CK23"/>
+    <mergeCell ref="CL23:CN23"/>
+    <mergeCell ref="CI17:CK17"/>
+    <mergeCell ref="CL17:CN17"/>
+    <mergeCell ref="CC36:CE36"/>
+    <mergeCell ref="CF36:CH36"/>
+    <mergeCell ref="CI36:CK36"/>
+    <mergeCell ref="CL36:CN36"/>
+    <mergeCell ref="CC37:CE37"/>
+    <mergeCell ref="CF37:CH37"/>
+    <mergeCell ref="CI37:CK37"/>
+    <mergeCell ref="CL37:CN37"/>
+    <mergeCell ref="BT44:BV44"/>
+    <mergeCell ref="BW44:BY44"/>
+    <mergeCell ref="BN4:BP4"/>
+    <mergeCell ref="BQ4:BS4"/>
+    <mergeCell ref="BN5:BP5"/>
+    <mergeCell ref="BQ5:BS5"/>
+    <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="BN7:BP7"/>
+    <mergeCell ref="BQ7:BS7"/>
+    <mergeCell ref="BN8:BP8"/>
+    <mergeCell ref="BQ8:BS8"/>
+    <mergeCell ref="BN9:BP9"/>
+    <mergeCell ref="BQ9:BS9"/>
+    <mergeCell ref="BN10:BP10"/>
+    <mergeCell ref="BQ10:BS10"/>
+    <mergeCell ref="BN11:BP11"/>
+    <mergeCell ref="BQ11:BS11"/>
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="BN13:BP13"/>
+    <mergeCell ref="BQ13:BS13"/>
+    <mergeCell ref="BN14:BP14"/>
+    <mergeCell ref="BQ14:BS14"/>
+    <mergeCell ref="BN44:BP44"/>
+    <mergeCell ref="BQ44:BS44"/>
+    <mergeCell ref="BN41:BP41"/>
+    <mergeCell ref="BQ41:BS41"/>
+    <mergeCell ref="BT40:BV40"/>
+    <mergeCell ref="BW40:BY40"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BW41:BY41"/>
+    <mergeCell ref="BT42:BV42"/>
+    <mergeCell ref="BW42:BY42"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="BW33:BY33"/>
+    <mergeCell ref="BT34:BV34"/>
+    <mergeCell ref="BW34:BY34"/>
+    <mergeCell ref="BT35:BV35"/>
+    <mergeCell ref="BW35:BY35"/>
+    <mergeCell ref="BT36:BV36"/>
+    <mergeCell ref="BW36:BY36"/>
+    <mergeCell ref="BT37:BV37"/>
+    <mergeCell ref="BW37:BY37"/>
+    <mergeCell ref="BN35:BP35"/>
+    <mergeCell ref="BQ35:BS35"/>
+    <mergeCell ref="BN36:BP36"/>
+    <mergeCell ref="BQ36:BS36"/>
+    <mergeCell ref="CO40:CQ40"/>
+    <mergeCell ref="CR40:CT40"/>
+    <mergeCell ref="BK44:BM44"/>
+    <mergeCell ref="BZ4:CB4"/>
+    <mergeCell ref="BZ5:CB5"/>
+    <mergeCell ref="BZ6:CB6"/>
+    <mergeCell ref="BZ7:CB7"/>
+    <mergeCell ref="BZ8:CB8"/>
+    <mergeCell ref="BZ9:CB9"/>
+    <mergeCell ref="BZ10:CB10"/>
+    <mergeCell ref="BZ11:CB11"/>
+    <mergeCell ref="BZ12:CB12"/>
+    <mergeCell ref="BZ13:CB13"/>
+    <mergeCell ref="BZ14:CB14"/>
+    <mergeCell ref="BZ15:CB15"/>
+    <mergeCell ref="BZ16:CB16"/>
+    <mergeCell ref="BZ17:CB17"/>
+    <mergeCell ref="BZ18:CB18"/>
+    <mergeCell ref="BZ19:CB19"/>
+    <mergeCell ref="BZ20:CB20"/>
+    <mergeCell ref="BZ21:CB21"/>
+    <mergeCell ref="BZ22:CB22"/>
+    <mergeCell ref="BZ23:CB23"/>
+    <mergeCell ref="BZ24:CB24"/>
+    <mergeCell ref="BZ25:CB25"/>
+    <mergeCell ref="BZ26:CB26"/>
+    <mergeCell ref="BZ44:CB44"/>
+    <mergeCell ref="BT4:BV4"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BT5:BV5"/>
+    <mergeCell ref="BW5:BY5"/>
+    <mergeCell ref="BT6:BV6"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="AV44:AX44"/>
+    <mergeCell ref="BE44:BG44"/>
+    <mergeCell ref="BH44:BJ44"/>
+    <mergeCell ref="DA44:DQ44"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AV42:AX42"/>
+    <mergeCell ref="BE42:BG42"/>
+    <mergeCell ref="BH42:BJ42"/>
+    <mergeCell ref="DA42:DQ42"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AV43:AX43"/>
+    <mergeCell ref="BE43:BG43"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BK7:BM7"/>
+    <mergeCell ref="BK8:BM8"/>
+    <mergeCell ref="BK9:BM9"/>
+    <mergeCell ref="BK10:BM10"/>
+    <mergeCell ref="BK11:BM11"/>
+    <mergeCell ref="BK12:BM12"/>
+    <mergeCell ref="BK13:BM13"/>
+    <mergeCell ref="BK14:BM14"/>
+    <mergeCell ref="BK15:BM15"/>
+    <mergeCell ref="BK16:BM16"/>
+    <mergeCell ref="BK17:BM17"/>
+    <mergeCell ref="BK18:BM18"/>
+    <mergeCell ref="BK19:BM19"/>
+    <mergeCell ref="BK20:BM20"/>
+    <mergeCell ref="BK21:BM21"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="BH43:BJ43"/>
+    <mergeCell ref="DA43:DQ43"/>
+    <mergeCell ref="BK42:BM42"/>
+    <mergeCell ref="BK43:BM43"/>
+    <mergeCell ref="BZ42:CB42"/>
+    <mergeCell ref="BZ43:CB43"/>
+    <mergeCell ref="BT43:BV43"/>
+    <mergeCell ref="BW43:BY43"/>
+    <mergeCell ref="BN42:BP42"/>
+    <mergeCell ref="BQ42:BS42"/>
+    <mergeCell ref="BN43:BP43"/>
+    <mergeCell ref="BQ43:BS43"/>
+    <mergeCell ref="CC42:CE42"/>
+    <mergeCell ref="CF42:CH42"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AV40:AX40"/>
+    <mergeCell ref="BE40:BG40"/>
+    <mergeCell ref="BH40:BJ40"/>
+    <mergeCell ref="DA40:DQ40"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AV41:AX41"/>
+    <mergeCell ref="BE41:BG41"/>
+    <mergeCell ref="BH41:BJ41"/>
+    <mergeCell ref="DA41:DQ41"/>
+    <mergeCell ref="BK40:BM40"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="BZ40:CB40"/>
+    <mergeCell ref="BZ41:CB41"/>
+    <mergeCell ref="CC41:CE41"/>
+    <mergeCell ref="CF41:CH41"/>
+    <mergeCell ref="CI41:CK41"/>
+    <mergeCell ref="CL41:CN41"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="AV38:AX38"/>
+    <mergeCell ref="BE38:BG38"/>
+    <mergeCell ref="BH38:BJ38"/>
+    <mergeCell ref="DA38:DQ38"/>
+    <mergeCell ref="BK38:BM38"/>
+    <mergeCell ref="BZ38:CB38"/>
+    <mergeCell ref="BE35:BG35"/>
+    <mergeCell ref="BH35:BJ35"/>
+    <mergeCell ref="DA35:DQ35"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AV36:AX36"/>
+    <mergeCell ref="BE36:BG36"/>
+    <mergeCell ref="BH36:BJ36"/>
+    <mergeCell ref="DA36:DQ36"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="AV37:AX37"/>
+    <mergeCell ref="BE37:BG37"/>
+    <mergeCell ref="BH37:BJ37"/>
+    <mergeCell ref="DA37:DQ37"/>
+    <mergeCell ref="BK35:BM35"/>
+    <mergeCell ref="BK36:BM36"/>
+    <mergeCell ref="BK37:BM37"/>
+    <mergeCell ref="BZ35:CB35"/>
+    <mergeCell ref="BZ36:CB36"/>
+    <mergeCell ref="BZ37:CB37"/>
+    <mergeCell ref="BN37:BP37"/>
+    <mergeCell ref="BQ37:BS37"/>
+    <mergeCell ref="BT38:BV38"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="AY37:BA37"/>
+    <mergeCell ref="AY38:BA38"/>
+    <mergeCell ref="BE31:BG31"/>
+    <mergeCell ref="BH31:BJ31"/>
+    <mergeCell ref="DA31:DQ31"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AV33:AX33"/>
+    <mergeCell ref="BE33:BG33"/>
+    <mergeCell ref="BH33:BJ33"/>
+    <mergeCell ref="DA33:DQ33"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AV34:AX34"/>
+    <mergeCell ref="BE34:BG34"/>
+    <mergeCell ref="BH34:BJ34"/>
+    <mergeCell ref="DA34:DQ34"/>
+    <mergeCell ref="BK31:BM31"/>
+    <mergeCell ref="BK33:BM33"/>
+    <mergeCell ref="BK34:BM34"/>
+    <mergeCell ref="BZ31:CB31"/>
+    <mergeCell ref="BZ33:CB33"/>
+    <mergeCell ref="BZ34:CB34"/>
+    <mergeCell ref="BT31:BV31"/>
+    <mergeCell ref="BW31:BY31"/>
+    <mergeCell ref="BN33:BP33"/>
+    <mergeCell ref="BQ33:BS33"/>
+    <mergeCell ref="BN34:BP34"/>
+    <mergeCell ref="BQ34:BS34"/>
+    <mergeCell ref="CC31:CE31"/>
+    <mergeCell ref="CF31:CH31"/>
+    <mergeCell ref="CI31:CK31"/>
+    <mergeCell ref="CL31:CN31"/>
+    <mergeCell ref="CC33:CE33"/>
+    <mergeCell ref="CF33:CH33"/>
+    <mergeCell ref="CI33:CK33"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AV29:AX29"/>
+    <mergeCell ref="BE29:BG29"/>
+    <mergeCell ref="BH29:BJ29"/>
+    <mergeCell ref="DA29:DQ29"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AV30:AX30"/>
+    <mergeCell ref="BE30:BG30"/>
+    <mergeCell ref="BH30:BJ30"/>
+    <mergeCell ref="DA30:DQ30"/>
+    <mergeCell ref="BK29:BM29"/>
+    <mergeCell ref="BK30:BM30"/>
+    <mergeCell ref="BZ29:CB29"/>
+    <mergeCell ref="BZ30:CB30"/>
+    <mergeCell ref="BT29:BV29"/>
+    <mergeCell ref="BW29:BY29"/>
+    <mergeCell ref="BT30:BV30"/>
+    <mergeCell ref="BW30:BY30"/>
+    <mergeCell ref="BN29:BP29"/>
+    <mergeCell ref="BQ29:BS29"/>
+    <mergeCell ref="BN30:BP30"/>
+    <mergeCell ref="BQ30:BS30"/>
+    <mergeCell ref="CC29:CE29"/>
+    <mergeCell ref="CF29:CH29"/>
+    <mergeCell ref="CI29:CK29"/>
+    <mergeCell ref="CL29:CN29"/>
+    <mergeCell ref="CC30:CE30"/>
+    <mergeCell ref="CF30:CH30"/>
+    <mergeCell ref="CI30:CK30"/>
+    <mergeCell ref="CL30:CN30"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AV26:AX26"/>
+    <mergeCell ref="BE26:BG26"/>
+    <mergeCell ref="BH26:BJ26"/>
+    <mergeCell ref="DA26:DQ26"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AV27:AX27"/>
+    <mergeCell ref="BE27:BG27"/>
+    <mergeCell ref="BH27:BJ27"/>
+    <mergeCell ref="DA27:DQ27"/>
+    <mergeCell ref="BK27:BM27"/>
+    <mergeCell ref="BZ27:CB27"/>
+    <mergeCell ref="BT26:BV26"/>
+    <mergeCell ref="BW26:BY26"/>
+    <mergeCell ref="BT27:BV27"/>
+    <mergeCell ref="BW27:BY27"/>
+    <mergeCell ref="BN26:BP26"/>
+    <mergeCell ref="BQ26:BS26"/>
+    <mergeCell ref="BN27:BP27"/>
+    <mergeCell ref="BQ27:BS27"/>
+    <mergeCell ref="CO27:CQ27"/>
+    <mergeCell ref="CC26:CE26"/>
+    <mergeCell ref="CF26:CH26"/>
+    <mergeCell ref="CI26:CK26"/>
+    <mergeCell ref="CL26:CN26"/>
+    <mergeCell ref="CC27:CE27"/>
+    <mergeCell ref="CF27:CH27"/>
+    <mergeCell ref="CI27:CK27"/>
+    <mergeCell ref="CL27:CN27"/>
+    <mergeCell ref="BK26:BM26"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AV24:AX24"/>
+    <mergeCell ref="BE24:BG24"/>
+    <mergeCell ref="BH24:BJ24"/>
+    <mergeCell ref="DA24:DQ24"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="AV25:AX25"/>
+    <mergeCell ref="BE25:BG25"/>
+    <mergeCell ref="BH25:BJ25"/>
+    <mergeCell ref="DA25:DQ25"/>
+    <mergeCell ref="BT24:BV24"/>
+    <mergeCell ref="BW24:BY24"/>
+    <mergeCell ref="BT25:BV25"/>
+    <mergeCell ref="BW25:BY25"/>
+    <mergeCell ref="BN24:BP24"/>
+    <mergeCell ref="BQ24:BS24"/>
+    <mergeCell ref="BN25:BP25"/>
+    <mergeCell ref="BQ25:BS25"/>
+    <mergeCell ref="CC24:CE24"/>
+    <mergeCell ref="CF24:CH24"/>
+    <mergeCell ref="CI24:CK24"/>
+    <mergeCell ref="CL24:CN24"/>
+    <mergeCell ref="CC25:CE25"/>
+    <mergeCell ref="CF25:CH25"/>
+    <mergeCell ref="CI25:CK25"/>
+    <mergeCell ref="CL25:CN25"/>
+    <mergeCell ref="CO24:CQ24"/>
+    <mergeCell ref="CR24:CT24"/>
+    <mergeCell ref="CU24:CW24"/>
+    <mergeCell ref="CX24:CZ24"/>
+    <mergeCell ref="BK24:BM24"/>
+    <mergeCell ref="BK25:BM25"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AV22:AX22"/>
+    <mergeCell ref="BE22:BG22"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="DA22:DQ22"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AV23:AX23"/>
+    <mergeCell ref="BE23:BG23"/>
+    <mergeCell ref="BH23:BJ23"/>
+    <mergeCell ref="DA23:DQ23"/>
+    <mergeCell ref="BT22:BV22"/>
+    <mergeCell ref="BW22:BY22"/>
+    <mergeCell ref="BT23:BV23"/>
+    <mergeCell ref="BW23:BY23"/>
+    <mergeCell ref="BN22:BP22"/>
+    <mergeCell ref="BQ22:BS22"/>
+    <mergeCell ref="BN23:BP23"/>
+    <mergeCell ref="BQ23:BS23"/>
+    <mergeCell ref="CO23:CQ23"/>
+    <mergeCell ref="CR23:CT23"/>
+    <mergeCell ref="CU23:CW23"/>
+    <mergeCell ref="CX23:CZ23"/>
+    <mergeCell ref="AY23:BA23"/>
+    <mergeCell ref="BB22:BD22"/>
+    <mergeCell ref="BB23:BD23"/>
+    <mergeCell ref="AY22:BA22"/>
+    <mergeCell ref="BK23:BM23"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="AV20:AX20"/>
+    <mergeCell ref="BE20:BG20"/>
+    <mergeCell ref="BH20:BJ20"/>
+    <mergeCell ref="DA20:DQ20"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AV21:AX21"/>
+    <mergeCell ref="BE21:BG21"/>
+    <mergeCell ref="BH21:BJ21"/>
+    <mergeCell ref="DA21:DQ21"/>
+    <mergeCell ref="BT20:BV20"/>
+    <mergeCell ref="BW20:BY20"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="BW21:BY21"/>
+    <mergeCell ref="BN20:BP20"/>
+    <mergeCell ref="BQ20:BS20"/>
+    <mergeCell ref="BN21:BP21"/>
+    <mergeCell ref="BQ21:BS21"/>
+    <mergeCell ref="CC20:CE20"/>
+    <mergeCell ref="CF20:CH20"/>
+    <mergeCell ref="CI20:CK20"/>
+    <mergeCell ref="CL20:CN20"/>
+    <mergeCell ref="CC21:CE21"/>
+    <mergeCell ref="CF21:CH21"/>
+    <mergeCell ref="BB21:BD21"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AV18:AX18"/>
+    <mergeCell ref="BE18:BG18"/>
+    <mergeCell ref="BH18:BJ18"/>
+    <mergeCell ref="DA18:DQ18"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AV19:AX19"/>
+    <mergeCell ref="BE19:BG19"/>
+    <mergeCell ref="BH19:BJ19"/>
+    <mergeCell ref="DA19:DQ19"/>
+    <mergeCell ref="BT18:BV18"/>
+    <mergeCell ref="BW18:BY18"/>
+    <mergeCell ref="BT19:BV19"/>
+    <mergeCell ref="BW19:BY19"/>
+    <mergeCell ref="BN18:BP18"/>
+    <mergeCell ref="BQ18:BS18"/>
+    <mergeCell ref="BN19:BP19"/>
+    <mergeCell ref="BQ19:BS19"/>
+    <mergeCell ref="CC18:CE18"/>
+    <mergeCell ref="CF18:CH18"/>
+    <mergeCell ref="CI18:CK18"/>
+    <mergeCell ref="CL18:CN18"/>
+    <mergeCell ref="CC19:CE19"/>
+    <mergeCell ref="CF19:CH19"/>
+    <mergeCell ref="CI19:CK19"/>
+    <mergeCell ref="CL19:CN19"/>
+    <mergeCell ref="CO18:CQ18"/>
+    <mergeCell ref="CR18:CT18"/>
+    <mergeCell ref="CU18:CW18"/>
+    <mergeCell ref="CX18:CZ18"/>
+    <mergeCell ref="CO19:CQ19"/>
+    <mergeCell ref="CR19:CT19"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AV16:AX16"/>
+    <mergeCell ref="BE16:BG16"/>
+    <mergeCell ref="BH16:BJ16"/>
+    <mergeCell ref="DA16:DQ16"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="BE17:BG17"/>
+    <mergeCell ref="BH17:BJ17"/>
+    <mergeCell ref="DA17:DQ17"/>
+    <mergeCell ref="BT16:BV16"/>
+    <mergeCell ref="BW16:BY16"/>
+    <mergeCell ref="BT17:BV17"/>
+    <mergeCell ref="BW17:BY17"/>
+    <mergeCell ref="BN16:BP16"/>
+    <mergeCell ref="BQ16:BS16"/>
+    <mergeCell ref="BN17:BP17"/>
+    <mergeCell ref="BQ17:BS17"/>
+    <mergeCell ref="CC16:CE16"/>
+    <mergeCell ref="CF16:CH16"/>
+    <mergeCell ref="CI16:CK16"/>
+    <mergeCell ref="CL16:CN16"/>
+    <mergeCell ref="CC17:CE17"/>
+    <mergeCell ref="CF17:CH17"/>
+    <mergeCell ref="CO16:CQ16"/>
+    <mergeCell ref="CR16:CT16"/>
+    <mergeCell ref="CU16:CW16"/>
+    <mergeCell ref="CX16:CZ16"/>
+    <mergeCell ref="CO17:CQ17"/>
+    <mergeCell ref="CR17:CT17"/>
+    <mergeCell ref="CU17:CW17"/>
+    <mergeCell ref="CX17:CZ17"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AV14:AX14"/>
+    <mergeCell ref="BE14:BG14"/>
+    <mergeCell ref="BH14:BJ14"/>
+    <mergeCell ref="DA14:DQ14"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="BE15:BG15"/>
+    <mergeCell ref="BH15:BJ15"/>
+    <mergeCell ref="DA15:DQ15"/>
+    <mergeCell ref="BW15:BY15"/>
+    <mergeCell ref="BN15:BP15"/>
+    <mergeCell ref="BQ15:BS15"/>
+    <mergeCell ref="CC14:CE14"/>
+    <mergeCell ref="CF14:CH14"/>
+    <mergeCell ref="CI14:CK14"/>
+    <mergeCell ref="CL14:CN14"/>
+    <mergeCell ref="CC15:CE15"/>
+    <mergeCell ref="CF15:CH15"/>
+    <mergeCell ref="CI15:CK15"/>
+    <mergeCell ref="CL15:CN15"/>
+    <mergeCell ref="CO14:CQ14"/>
+    <mergeCell ref="BT14:BV14"/>
+    <mergeCell ref="BW14:BY14"/>
+    <mergeCell ref="BT15:BV15"/>
+    <mergeCell ref="CU15:CW15"/>
+    <mergeCell ref="CX15:CZ15"/>
+    <mergeCell ref="BW10:BY10"/>
+    <mergeCell ref="BT11:BV11"/>
+    <mergeCell ref="BW11:BY11"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AV12:AX12"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="BH12:BJ12"/>
+    <mergeCell ref="DA12:DQ12"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AV13:AX13"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="BH13:BJ13"/>
+    <mergeCell ref="DA13:DQ13"/>
+    <mergeCell ref="CC12:CE12"/>
+    <mergeCell ref="CF12:CH12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="CL12:CN12"/>
+    <mergeCell ref="CC13:CE13"/>
+    <mergeCell ref="CF13:CH13"/>
+    <mergeCell ref="CI13:CK13"/>
+    <mergeCell ref="CL13:CN13"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="BW12:BY12"/>
+    <mergeCell ref="BT13:BV13"/>
+    <mergeCell ref="BW13:BY13"/>
+    <mergeCell ref="CO11:CQ11"/>
+    <mergeCell ref="CR11:CT11"/>
+    <mergeCell ref="CU11:CW11"/>
+    <mergeCell ref="CX11:CZ11"/>
+    <mergeCell ref="CO12:CQ12"/>
+    <mergeCell ref="CR12:CT12"/>
+    <mergeCell ref="CU12:CW12"/>
+    <mergeCell ref="CX9:CZ9"/>
+    <mergeCell ref="BT8:BV8"/>
+    <mergeCell ref="BW8:BY8"/>
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BW9:BY9"/>
+    <mergeCell ref="CR8:CT8"/>
+    <mergeCell ref="CU8:CW8"/>
+    <mergeCell ref="CX8:CZ8"/>
+    <mergeCell ref="CO9:CQ9"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AV10:AX10"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="DA10:DQ10"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="BH11:BJ11"/>
+    <mergeCell ref="DA11:DQ11"/>
+    <mergeCell ref="CC10:CE10"/>
+    <mergeCell ref="CF10:CH10"/>
+    <mergeCell ref="CI10:CK10"/>
+    <mergeCell ref="CL10:CN10"/>
+    <mergeCell ref="CC11:CE11"/>
+    <mergeCell ref="CF11:CH11"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CL11:CN11"/>
+    <mergeCell ref="CO10:CQ10"/>
+    <mergeCell ref="CR10:CT10"/>
+    <mergeCell ref="CU10:CW10"/>
+    <mergeCell ref="CX10:CZ10"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="DA5:DQ5"/>
+    <mergeCell ref="BW7:BY7"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CF4:CH4"/>
+    <mergeCell ref="CI4:CK4"/>
+    <mergeCell ref="CL4:CN4"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="CF5:CH5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="CL5:CN5"/>
+    <mergeCell ref="BW6:BY6"/>
+    <mergeCell ref="BT7:BV7"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CF6:CH6"/>
+    <mergeCell ref="CI6:CK6"/>
+    <mergeCell ref="CL6:CN6"/>
+    <mergeCell ref="CC7:CE7"/>
+    <mergeCell ref="CF7:CH7"/>
+    <mergeCell ref="CI7:CK7"/>
+    <mergeCell ref="CL7:CN7"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="AY7:BA7"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="DA6:DQ6"/>
+    <mergeCell ref="AS7:AU7"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="BE7:BG7"/>
+    <mergeCell ref="BH7:BJ7"/>
+    <mergeCell ref="DA7:DQ7"/>
+    <mergeCell ref="AS8:AU8"/>
+    <mergeCell ref="AV8:AX8"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="DA8:DQ8"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AV9:AX9"/>
+    <mergeCell ref="BE9:BG9"/>
+    <mergeCell ref="BH9:BJ9"/>
+    <mergeCell ref="DA9:DQ9"/>
+    <mergeCell ref="CI9:CK9"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CR9:CT9"/>
+    <mergeCell ref="CU9:CW9"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="C33:G41"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="AG19:AI19"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AV31:AX31"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="AV35:AX35"/>
+    <mergeCell ref="AM36:AO36"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="AM34:AO34"/>
+    <mergeCell ref="AP34:AR34"/>
+    <mergeCell ref="AM35:AO35"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="X3:AL3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="H3:N4"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="C3:G4"/>
     <mergeCell ref="H29:N29"/>
     <mergeCell ref="O29:Q29"/>
     <mergeCell ref="R29:T29"/>
@@ -8383,1195 +9461,109 @@
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="C3:G4"/>
-    <mergeCell ref="X3:AL3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="O3:W3"/>
-    <mergeCell ref="H3:N4"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AG26:AI26"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AI34"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AV31:AX31"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AV35:AX35"/>
-    <mergeCell ref="AM36:AO36"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AM34:AO34"/>
-    <mergeCell ref="AP34:AR34"/>
-    <mergeCell ref="AM35:AO35"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AG38:AI38"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="AG36:AI36"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AI39"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AG19:AI19"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="C33:G41"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="AG44:AI44"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="BE6:BG6"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="DA6:DQ6"/>
-    <mergeCell ref="AS7:AU7"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="BE7:BG7"/>
-    <mergeCell ref="BH7:BJ7"/>
-    <mergeCell ref="DA7:DQ7"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:AX5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="DA5:DQ5"/>
-    <mergeCell ref="BW7:BY7"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CF4:CH4"/>
-    <mergeCell ref="CI4:CK4"/>
-    <mergeCell ref="CL4:CN4"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="CF5:CH5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="CL5:CN5"/>
-    <mergeCell ref="AS8:AU8"/>
-    <mergeCell ref="AV8:AX8"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="DA8:DQ8"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AV9:AX9"/>
-    <mergeCell ref="BE9:BG9"/>
-    <mergeCell ref="BH9:BJ9"/>
-    <mergeCell ref="DA9:DQ9"/>
-    <mergeCell ref="CI9:CK9"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CR9:CT9"/>
-    <mergeCell ref="CU9:CW9"/>
-    <mergeCell ref="CX9:CZ9"/>
-    <mergeCell ref="BT8:BV8"/>
-    <mergeCell ref="BW8:BY8"/>
-    <mergeCell ref="BT9:BV9"/>
-    <mergeCell ref="BW9:BY9"/>
-    <mergeCell ref="CR8:CT8"/>
-    <mergeCell ref="CU8:CW8"/>
-    <mergeCell ref="CX8:CZ8"/>
-    <mergeCell ref="CO9:CQ9"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AV10:AX10"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="DA10:DQ10"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="BH11:BJ11"/>
-    <mergeCell ref="DA11:DQ11"/>
-    <mergeCell ref="CC10:CE10"/>
-    <mergeCell ref="CF10:CH10"/>
-    <mergeCell ref="CI10:CK10"/>
-    <mergeCell ref="CL10:CN10"/>
-    <mergeCell ref="CC11:CE11"/>
-    <mergeCell ref="CF11:CH11"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CL11:CN11"/>
-    <mergeCell ref="CO10:CQ10"/>
-    <mergeCell ref="CR10:CT10"/>
-    <mergeCell ref="CU10:CW10"/>
-    <mergeCell ref="CX10:CZ10"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="BW10:BY10"/>
-    <mergeCell ref="BT11:BV11"/>
-    <mergeCell ref="BW11:BY11"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AV12:AX12"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="BH12:BJ12"/>
-    <mergeCell ref="DA12:DQ12"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AV13:AX13"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="BH13:BJ13"/>
-    <mergeCell ref="DA13:DQ13"/>
-    <mergeCell ref="CC12:CE12"/>
-    <mergeCell ref="CF12:CH12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="CL12:CN12"/>
-    <mergeCell ref="CC13:CE13"/>
-    <mergeCell ref="CF13:CH13"/>
-    <mergeCell ref="CI13:CK13"/>
-    <mergeCell ref="CL13:CN13"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="BW12:BY12"/>
-    <mergeCell ref="BT13:BV13"/>
-    <mergeCell ref="BW13:BY13"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AV14:AX14"/>
-    <mergeCell ref="BE14:BG14"/>
-    <mergeCell ref="BH14:BJ14"/>
-    <mergeCell ref="DA14:DQ14"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="BE15:BG15"/>
-    <mergeCell ref="BH15:BJ15"/>
-    <mergeCell ref="DA15:DQ15"/>
-    <mergeCell ref="BW15:BY15"/>
-    <mergeCell ref="BN15:BP15"/>
-    <mergeCell ref="BQ15:BS15"/>
-    <mergeCell ref="CC14:CE14"/>
-    <mergeCell ref="CF14:CH14"/>
-    <mergeCell ref="CI14:CK14"/>
-    <mergeCell ref="CL14:CN14"/>
-    <mergeCell ref="CC15:CE15"/>
-    <mergeCell ref="CF15:CH15"/>
-    <mergeCell ref="CI15:CK15"/>
-    <mergeCell ref="CL15:CN15"/>
-    <mergeCell ref="CO14:CQ14"/>
-    <mergeCell ref="BT14:BV14"/>
-    <mergeCell ref="BW14:BY14"/>
-    <mergeCell ref="BT15:BV15"/>
-    <mergeCell ref="CU15:CW15"/>
-    <mergeCell ref="CX15:CZ15"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AV16:AX16"/>
-    <mergeCell ref="BE16:BG16"/>
-    <mergeCell ref="BH16:BJ16"/>
-    <mergeCell ref="DA16:DQ16"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="BE17:BG17"/>
-    <mergeCell ref="BH17:BJ17"/>
-    <mergeCell ref="DA17:DQ17"/>
-    <mergeCell ref="BT16:BV16"/>
-    <mergeCell ref="BW16:BY16"/>
-    <mergeCell ref="BT17:BV17"/>
-    <mergeCell ref="BW17:BY17"/>
-    <mergeCell ref="BN16:BP16"/>
-    <mergeCell ref="BQ16:BS16"/>
-    <mergeCell ref="BN17:BP17"/>
-    <mergeCell ref="BQ17:BS17"/>
-    <mergeCell ref="CC16:CE16"/>
-    <mergeCell ref="CF16:CH16"/>
-    <mergeCell ref="CI16:CK16"/>
-    <mergeCell ref="CL16:CN16"/>
-    <mergeCell ref="CC17:CE17"/>
-    <mergeCell ref="CF17:CH17"/>
-    <mergeCell ref="CO16:CQ16"/>
-    <mergeCell ref="CR16:CT16"/>
-    <mergeCell ref="CU16:CW16"/>
-    <mergeCell ref="CX16:CZ16"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AV18:AX18"/>
-    <mergeCell ref="BE18:BG18"/>
-    <mergeCell ref="BH18:BJ18"/>
-    <mergeCell ref="DA18:DQ18"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AV19:AX19"/>
-    <mergeCell ref="BE19:BG19"/>
-    <mergeCell ref="BH19:BJ19"/>
-    <mergeCell ref="DA19:DQ19"/>
-    <mergeCell ref="BT18:BV18"/>
-    <mergeCell ref="BW18:BY18"/>
-    <mergeCell ref="BT19:BV19"/>
-    <mergeCell ref="BW19:BY19"/>
-    <mergeCell ref="BN18:BP18"/>
-    <mergeCell ref="BQ18:BS18"/>
-    <mergeCell ref="BN19:BP19"/>
-    <mergeCell ref="BQ19:BS19"/>
-    <mergeCell ref="CC18:CE18"/>
-    <mergeCell ref="CF18:CH18"/>
-    <mergeCell ref="CI18:CK18"/>
-    <mergeCell ref="CL18:CN18"/>
-    <mergeCell ref="CC19:CE19"/>
-    <mergeCell ref="CF19:CH19"/>
-    <mergeCell ref="CI19:CK19"/>
-    <mergeCell ref="CL19:CN19"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AV20:AX20"/>
-    <mergeCell ref="BE20:BG20"/>
-    <mergeCell ref="BH20:BJ20"/>
-    <mergeCell ref="DA20:DQ20"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AV21:AX21"/>
-    <mergeCell ref="BE21:BG21"/>
-    <mergeCell ref="BH21:BJ21"/>
-    <mergeCell ref="DA21:DQ21"/>
-    <mergeCell ref="BT20:BV20"/>
-    <mergeCell ref="BW20:BY20"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="BW21:BY21"/>
-    <mergeCell ref="BN20:BP20"/>
-    <mergeCell ref="BQ20:BS20"/>
-    <mergeCell ref="BN21:BP21"/>
-    <mergeCell ref="BQ21:BS21"/>
-    <mergeCell ref="CC20:CE20"/>
-    <mergeCell ref="CF20:CH20"/>
-    <mergeCell ref="CI20:CK20"/>
-    <mergeCell ref="CL20:CN20"/>
-    <mergeCell ref="CC21:CE21"/>
-    <mergeCell ref="CF21:CH21"/>
-    <mergeCell ref="BB21:BD21"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AV22:AX22"/>
-    <mergeCell ref="BE22:BG22"/>
-    <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="DA22:DQ22"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AV23:AX23"/>
-    <mergeCell ref="BE23:BG23"/>
-    <mergeCell ref="BH23:BJ23"/>
-    <mergeCell ref="DA23:DQ23"/>
-    <mergeCell ref="BT22:BV22"/>
-    <mergeCell ref="BW22:BY22"/>
-    <mergeCell ref="BT23:BV23"/>
-    <mergeCell ref="BW23:BY23"/>
-    <mergeCell ref="BN22:BP22"/>
-    <mergeCell ref="BQ22:BS22"/>
-    <mergeCell ref="BN23:BP23"/>
-    <mergeCell ref="BQ23:BS23"/>
-    <mergeCell ref="CO23:CQ23"/>
-    <mergeCell ref="CR23:CT23"/>
-    <mergeCell ref="CU23:CW23"/>
-    <mergeCell ref="CX23:CZ23"/>
-    <mergeCell ref="AY23:BA23"/>
-    <mergeCell ref="BB22:BD22"/>
-    <mergeCell ref="BB23:BD23"/>
-    <mergeCell ref="AY22:BA22"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AV24:AX24"/>
-    <mergeCell ref="BE24:BG24"/>
-    <mergeCell ref="BH24:BJ24"/>
-    <mergeCell ref="DA24:DQ24"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="AV25:AX25"/>
-    <mergeCell ref="BE25:BG25"/>
-    <mergeCell ref="BH25:BJ25"/>
-    <mergeCell ref="DA25:DQ25"/>
-    <mergeCell ref="BT24:BV24"/>
-    <mergeCell ref="BW24:BY24"/>
-    <mergeCell ref="BT25:BV25"/>
-    <mergeCell ref="BW25:BY25"/>
-    <mergeCell ref="BN24:BP24"/>
-    <mergeCell ref="BQ24:BS24"/>
-    <mergeCell ref="BN25:BP25"/>
-    <mergeCell ref="BQ25:BS25"/>
-    <mergeCell ref="CC24:CE24"/>
-    <mergeCell ref="CF24:CH24"/>
-    <mergeCell ref="CI24:CK24"/>
-    <mergeCell ref="CL24:CN24"/>
-    <mergeCell ref="CC25:CE25"/>
-    <mergeCell ref="CF25:CH25"/>
-    <mergeCell ref="CI25:CK25"/>
-    <mergeCell ref="CL25:CN25"/>
-    <mergeCell ref="CO24:CQ24"/>
-    <mergeCell ref="CR24:CT24"/>
-    <mergeCell ref="CU24:CW24"/>
-    <mergeCell ref="CX24:CZ24"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AV26:AX26"/>
-    <mergeCell ref="BE26:BG26"/>
-    <mergeCell ref="BH26:BJ26"/>
-    <mergeCell ref="DA26:DQ26"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AV27:AX27"/>
-    <mergeCell ref="BE27:BG27"/>
-    <mergeCell ref="BH27:BJ27"/>
-    <mergeCell ref="DA27:DQ27"/>
-    <mergeCell ref="BK27:BM27"/>
-    <mergeCell ref="BZ27:CB27"/>
-    <mergeCell ref="BT26:BV26"/>
-    <mergeCell ref="BW26:BY26"/>
-    <mergeCell ref="BT27:BV27"/>
-    <mergeCell ref="BW27:BY27"/>
-    <mergeCell ref="BN26:BP26"/>
-    <mergeCell ref="BQ26:BS26"/>
-    <mergeCell ref="BN27:BP27"/>
-    <mergeCell ref="BQ27:BS27"/>
-    <mergeCell ref="CO27:CQ27"/>
-    <mergeCell ref="CC26:CE26"/>
-    <mergeCell ref="CF26:CH26"/>
-    <mergeCell ref="CI26:CK26"/>
-    <mergeCell ref="CL26:CN26"/>
-    <mergeCell ref="CC27:CE27"/>
-    <mergeCell ref="CF27:CH27"/>
-    <mergeCell ref="CI27:CK27"/>
-    <mergeCell ref="CL27:CN27"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AV29:AX29"/>
-    <mergeCell ref="BE29:BG29"/>
-    <mergeCell ref="BH29:BJ29"/>
-    <mergeCell ref="DA29:DQ29"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AV30:AX30"/>
-    <mergeCell ref="BE30:BG30"/>
-    <mergeCell ref="BH30:BJ30"/>
-    <mergeCell ref="DA30:DQ30"/>
-    <mergeCell ref="BK29:BM29"/>
-    <mergeCell ref="BK30:BM30"/>
-    <mergeCell ref="BZ29:CB29"/>
-    <mergeCell ref="BZ30:CB30"/>
-    <mergeCell ref="BT29:BV29"/>
-    <mergeCell ref="BW29:BY29"/>
-    <mergeCell ref="BT30:BV30"/>
-    <mergeCell ref="BW30:BY30"/>
-    <mergeCell ref="BN29:BP29"/>
-    <mergeCell ref="BQ29:BS29"/>
-    <mergeCell ref="BN30:BP30"/>
-    <mergeCell ref="BQ30:BS30"/>
-    <mergeCell ref="CC29:CE29"/>
-    <mergeCell ref="CF29:CH29"/>
-    <mergeCell ref="CI29:CK29"/>
-    <mergeCell ref="CL29:CN29"/>
-    <mergeCell ref="CC30:CE30"/>
-    <mergeCell ref="CF30:CH30"/>
-    <mergeCell ref="CI30:CK30"/>
-    <mergeCell ref="CL30:CN30"/>
-    <mergeCell ref="BE31:BG31"/>
-    <mergeCell ref="BH31:BJ31"/>
-    <mergeCell ref="DA31:DQ31"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AV33:AX33"/>
-    <mergeCell ref="BE33:BG33"/>
-    <mergeCell ref="BH33:BJ33"/>
-    <mergeCell ref="DA33:DQ33"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AV34:AX34"/>
-    <mergeCell ref="BE34:BG34"/>
-    <mergeCell ref="BH34:BJ34"/>
-    <mergeCell ref="DA34:DQ34"/>
-    <mergeCell ref="BK31:BM31"/>
-    <mergeCell ref="BK33:BM33"/>
-    <mergeCell ref="BK34:BM34"/>
-    <mergeCell ref="BZ31:CB31"/>
-    <mergeCell ref="BZ33:CB33"/>
-    <mergeCell ref="BZ34:CB34"/>
-    <mergeCell ref="BT31:BV31"/>
-    <mergeCell ref="BW31:BY31"/>
-    <mergeCell ref="BN33:BP33"/>
-    <mergeCell ref="BQ33:BS33"/>
-    <mergeCell ref="BN34:BP34"/>
-    <mergeCell ref="BQ34:BS34"/>
-    <mergeCell ref="CC31:CE31"/>
-    <mergeCell ref="CF31:CH31"/>
-    <mergeCell ref="CI31:CK31"/>
-    <mergeCell ref="CL31:CN31"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="AV38:AX38"/>
-    <mergeCell ref="BE38:BG38"/>
-    <mergeCell ref="BH38:BJ38"/>
-    <mergeCell ref="DA38:DQ38"/>
-    <mergeCell ref="BK38:BM38"/>
-    <mergeCell ref="BZ38:CB38"/>
-    <mergeCell ref="BE35:BG35"/>
-    <mergeCell ref="BH35:BJ35"/>
-    <mergeCell ref="DA35:DQ35"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AV36:AX36"/>
-    <mergeCell ref="BE36:BG36"/>
-    <mergeCell ref="BH36:BJ36"/>
-    <mergeCell ref="DA36:DQ36"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="AV37:AX37"/>
-    <mergeCell ref="BE37:BG37"/>
-    <mergeCell ref="BH37:BJ37"/>
-    <mergeCell ref="DA37:DQ37"/>
-    <mergeCell ref="BK35:BM35"/>
-    <mergeCell ref="BK36:BM36"/>
-    <mergeCell ref="BK37:BM37"/>
-    <mergeCell ref="BZ35:CB35"/>
-    <mergeCell ref="BZ36:CB36"/>
-    <mergeCell ref="BZ37:CB37"/>
-    <mergeCell ref="BN37:BP37"/>
-    <mergeCell ref="BQ37:BS37"/>
-    <mergeCell ref="BH43:BJ43"/>
-    <mergeCell ref="DA43:DQ43"/>
-    <mergeCell ref="BK42:BM42"/>
-    <mergeCell ref="BK43:BM43"/>
-    <mergeCell ref="BZ42:CB42"/>
-    <mergeCell ref="BZ43:CB43"/>
-    <mergeCell ref="BT43:BV43"/>
-    <mergeCell ref="BW43:BY43"/>
-    <mergeCell ref="BN42:BP42"/>
-    <mergeCell ref="BQ42:BS42"/>
-    <mergeCell ref="BN43:BP43"/>
-    <mergeCell ref="BQ43:BS43"/>
-    <mergeCell ref="CC42:CE42"/>
-    <mergeCell ref="CF42:CH42"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AV40:AX40"/>
-    <mergeCell ref="BE40:BG40"/>
-    <mergeCell ref="BH40:BJ40"/>
-    <mergeCell ref="DA40:DQ40"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AV41:AX41"/>
-    <mergeCell ref="BE41:BG41"/>
-    <mergeCell ref="BH41:BJ41"/>
-    <mergeCell ref="DA41:DQ41"/>
-    <mergeCell ref="BK40:BM40"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="BZ40:CB40"/>
-    <mergeCell ref="BZ41:CB41"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AV44:AX44"/>
-    <mergeCell ref="BE44:BG44"/>
-    <mergeCell ref="BH44:BJ44"/>
-    <mergeCell ref="DA44:DQ44"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AV42:AX42"/>
-    <mergeCell ref="BE42:BG42"/>
-    <mergeCell ref="BH42:BJ42"/>
-    <mergeCell ref="DA42:DQ42"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AV43:AX43"/>
-    <mergeCell ref="BE43:BG43"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="BK7:BM7"/>
-    <mergeCell ref="BK8:BM8"/>
-    <mergeCell ref="BK9:BM9"/>
-    <mergeCell ref="BK10:BM10"/>
-    <mergeCell ref="BK11:BM11"/>
-    <mergeCell ref="BK12:BM12"/>
-    <mergeCell ref="BK13:BM13"/>
-    <mergeCell ref="BK14:BM14"/>
-    <mergeCell ref="BK15:BM15"/>
-    <mergeCell ref="BK16:BM16"/>
-    <mergeCell ref="BK17:BM17"/>
-    <mergeCell ref="BK18:BM18"/>
-    <mergeCell ref="BK19:BM19"/>
-    <mergeCell ref="BK20:BM20"/>
-    <mergeCell ref="BK21:BM21"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="BK23:BM23"/>
-    <mergeCell ref="BK24:BM24"/>
-    <mergeCell ref="BK25:BM25"/>
-    <mergeCell ref="BK26:BM26"/>
-    <mergeCell ref="CC41:CE41"/>
-    <mergeCell ref="CF41:CH41"/>
-    <mergeCell ref="CI41:CK41"/>
-    <mergeCell ref="CL41:CN41"/>
-    <mergeCell ref="CO40:CQ40"/>
-    <mergeCell ref="CR40:CT40"/>
-    <mergeCell ref="BK44:BM44"/>
-    <mergeCell ref="BZ4:CB4"/>
-    <mergeCell ref="BZ5:CB5"/>
-    <mergeCell ref="BZ6:CB6"/>
-    <mergeCell ref="BZ7:CB7"/>
-    <mergeCell ref="BZ8:CB8"/>
-    <mergeCell ref="BZ9:CB9"/>
-    <mergeCell ref="BZ10:CB10"/>
-    <mergeCell ref="BZ11:CB11"/>
-    <mergeCell ref="BZ12:CB12"/>
-    <mergeCell ref="BZ13:CB13"/>
-    <mergeCell ref="BZ14:CB14"/>
-    <mergeCell ref="BZ15:CB15"/>
-    <mergeCell ref="BZ16:CB16"/>
-    <mergeCell ref="BZ17:CB17"/>
-    <mergeCell ref="BZ18:CB18"/>
-    <mergeCell ref="BZ19:CB19"/>
-    <mergeCell ref="BZ20:CB20"/>
-    <mergeCell ref="BZ21:CB21"/>
-    <mergeCell ref="BZ22:CB22"/>
-    <mergeCell ref="BZ23:CB23"/>
-    <mergeCell ref="BZ24:CB24"/>
-    <mergeCell ref="BZ25:CB25"/>
-    <mergeCell ref="BZ26:CB26"/>
-    <mergeCell ref="BZ44:CB44"/>
-    <mergeCell ref="BT4:BV4"/>
-    <mergeCell ref="BW4:BY4"/>
-    <mergeCell ref="BT5:BV5"/>
-    <mergeCell ref="BW5:BY5"/>
-    <mergeCell ref="BT6:BV6"/>
-    <mergeCell ref="BW6:BY6"/>
-    <mergeCell ref="BT7:BV7"/>
-    <mergeCell ref="BT38:BV38"/>
-    <mergeCell ref="BW38:BY38"/>
-    <mergeCell ref="BT40:BV40"/>
-    <mergeCell ref="BW40:BY40"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BW41:BY41"/>
-    <mergeCell ref="BT42:BV42"/>
-    <mergeCell ref="BW42:BY42"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="BW33:BY33"/>
-    <mergeCell ref="BT34:BV34"/>
-    <mergeCell ref="BW34:BY34"/>
-    <mergeCell ref="BT35:BV35"/>
-    <mergeCell ref="BW35:BY35"/>
-    <mergeCell ref="BT36:BV36"/>
-    <mergeCell ref="BW36:BY36"/>
-    <mergeCell ref="BT37:BV37"/>
-    <mergeCell ref="BW37:BY37"/>
-    <mergeCell ref="BN35:BP35"/>
-    <mergeCell ref="BQ35:BS35"/>
-    <mergeCell ref="BN36:BP36"/>
-    <mergeCell ref="BQ36:BS36"/>
-    <mergeCell ref="BT44:BV44"/>
-    <mergeCell ref="BW44:BY44"/>
-    <mergeCell ref="BN4:BP4"/>
-    <mergeCell ref="BQ4:BS4"/>
-    <mergeCell ref="BN5:BP5"/>
-    <mergeCell ref="BQ5:BS5"/>
-    <mergeCell ref="BN6:BP6"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="BN7:BP7"/>
-    <mergeCell ref="BQ7:BS7"/>
-    <mergeCell ref="BN8:BP8"/>
-    <mergeCell ref="BQ8:BS8"/>
-    <mergeCell ref="BN9:BP9"/>
-    <mergeCell ref="BQ9:BS9"/>
-    <mergeCell ref="BN10:BP10"/>
-    <mergeCell ref="BQ10:BS10"/>
-    <mergeCell ref="BN11:BP11"/>
-    <mergeCell ref="BQ11:BS11"/>
-    <mergeCell ref="BN12:BP12"/>
-    <mergeCell ref="BQ12:BS12"/>
-    <mergeCell ref="BN13:BP13"/>
-    <mergeCell ref="BQ13:BS13"/>
-    <mergeCell ref="BN14:BP14"/>
-    <mergeCell ref="BQ14:BS14"/>
-    <mergeCell ref="BN44:BP44"/>
-    <mergeCell ref="BQ44:BS44"/>
-    <mergeCell ref="BN41:BP41"/>
-    <mergeCell ref="BQ41:BS41"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CF6:CH6"/>
-    <mergeCell ref="CI6:CK6"/>
-    <mergeCell ref="CL6:CN6"/>
-    <mergeCell ref="CC7:CE7"/>
-    <mergeCell ref="CF7:CH7"/>
-    <mergeCell ref="CI7:CK7"/>
-    <mergeCell ref="CL7:CN7"/>
-    <mergeCell ref="CC8:CE8"/>
-    <mergeCell ref="CF8:CH8"/>
-    <mergeCell ref="CI8:CK8"/>
-    <mergeCell ref="CL8:CN8"/>
-    <mergeCell ref="CC9:CE9"/>
-    <mergeCell ref="CF9:CH9"/>
-    <mergeCell ref="BN38:BP38"/>
-    <mergeCell ref="BQ38:BS38"/>
-    <mergeCell ref="BN40:BP40"/>
-    <mergeCell ref="BQ40:BS40"/>
-    <mergeCell ref="BN31:BP31"/>
-    <mergeCell ref="BQ31:BS31"/>
-    <mergeCell ref="CI21:CK21"/>
-    <mergeCell ref="CL21:CN21"/>
-    <mergeCell ref="CC22:CE22"/>
-    <mergeCell ref="CF22:CH22"/>
-    <mergeCell ref="CI22:CK22"/>
-    <mergeCell ref="CL22:CN22"/>
-    <mergeCell ref="CC23:CE23"/>
-    <mergeCell ref="CF23:CH23"/>
-    <mergeCell ref="CI23:CK23"/>
-    <mergeCell ref="CL23:CN23"/>
-    <mergeCell ref="CI17:CK17"/>
-    <mergeCell ref="CL17:CN17"/>
-    <mergeCell ref="CC36:CE36"/>
-    <mergeCell ref="CF36:CH36"/>
-    <mergeCell ref="CI36:CK36"/>
-    <mergeCell ref="CL36:CN36"/>
-    <mergeCell ref="CC37:CE37"/>
-    <mergeCell ref="CF37:CH37"/>
-    <mergeCell ref="CI37:CK37"/>
-    <mergeCell ref="CL37:CN37"/>
-    <mergeCell ref="CC33:CE33"/>
-    <mergeCell ref="CF33:CH33"/>
-    <mergeCell ref="CI33:CK33"/>
-    <mergeCell ref="CL33:CN33"/>
-    <mergeCell ref="CC34:CE34"/>
-    <mergeCell ref="CF34:CH34"/>
-    <mergeCell ref="CI34:CK34"/>
-    <mergeCell ref="CL34:CN34"/>
-    <mergeCell ref="CC35:CE35"/>
-    <mergeCell ref="CF35:CH35"/>
-    <mergeCell ref="CI35:CK35"/>
-    <mergeCell ref="CL35:CN35"/>
-    <mergeCell ref="CI42:CK42"/>
-    <mergeCell ref="CL42:CN42"/>
-    <mergeCell ref="CC43:CE43"/>
-    <mergeCell ref="CF43:CH43"/>
-    <mergeCell ref="CI43:CK43"/>
-    <mergeCell ref="CL43:CN43"/>
-    <mergeCell ref="CC44:CE44"/>
-    <mergeCell ref="CF44:CH44"/>
-    <mergeCell ref="CI44:CK44"/>
-    <mergeCell ref="CL44:CN44"/>
-    <mergeCell ref="CC38:CE38"/>
-    <mergeCell ref="CF38:CH38"/>
-    <mergeCell ref="CI38:CK38"/>
-    <mergeCell ref="CL38:CN38"/>
-    <mergeCell ref="CC40:CE40"/>
-    <mergeCell ref="CF40:CH40"/>
-    <mergeCell ref="CI40:CK40"/>
-    <mergeCell ref="CL40:CN40"/>
-    <mergeCell ref="CF39:CH39"/>
-    <mergeCell ref="CI39:CK39"/>
-    <mergeCell ref="CL39:CN39"/>
-    <mergeCell ref="CO11:CQ11"/>
-    <mergeCell ref="CR11:CT11"/>
-    <mergeCell ref="CU11:CW11"/>
-    <mergeCell ref="CX11:CZ11"/>
-    <mergeCell ref="CO12:CQ12"/>
-    <mergeCell ref="CR12:CT12"/>
-    <mergeCell ref="CU12:CW12"/>
-    <mergeCell ref="CX12:CZ12"/>
-    <mergeCell ref="CO13:CQ13"/>
-    <mergeCell ref="CR13:CT13"/>
-    <mergeCell ref="CU13:CW13"/>
-    <mergeCell ref="CX13:CZ13"/>
-    <mergeCell ref="CR14:CT14"/>
-    <mergeCell ref="CU14:CW14"/>
-    <mergeCell ref="CX14:CZ14"/>
-    <mergeCell ref="CO15:CQ15"/>
-    <mergeCell ref="CR15:CT15"/>
-    <mergeCell ref="CO4:CQ4"/>
-    <mergeCell ref="CR4:CT4"/>
-    <mergeCell ref="CU4:CW4"/>
-    <mergeCell ref="CX4:CZ4"/>
-    <mergeCell ref="CO5:CQ5"/>
-    <mergeCell ref="CR5:CT5"/>
-    <mergeCell ref="CU5:CW5"/>
-    <mergeCell ref="CX5:CZ5"/>
-    <mergeCell ref="CO6:CQ6"/>
-    <mergeCell ref="CR6:CT6"/>
-    <mergeCell ref="CU6:CW6"/>
-    <mergeCell ref="CX6:CZ6"/>
-    <mergeCell ref="CO7:CQ7"/>
-    <mergeCell ref="CR7:CT7"/>
-    <mergeCell ref="CU7:CW7"/>
-    <mergeCell ref="CX7:CZ7"/>
-    <mergeCell ref="CO8:CQ8"/>
-    <mergeCell ref="CO17:CQ17"/>
-    <mergeCell ref="CR17:CT17"/>
-    <mergeCell ref="CU17:CW17"/>
-    <mergeCell ref="CX17:CZ17"/>
-    <mergeCell ref="CO18:CQ18"/>
-    <mergeCell ref="CR18:CT18"/>
-    <mergeCell ref="CU18:CW18"/>
-    <mergeCell ref="CX18:CZ18"/>
-    <mergeCell ref="CO19:CQ19"/>
-    <mergeCell ref="CR19:CT19"/>
-    <mergeCell ref="CU19:CW19"/>
-    <mergeCell ref="CX19:CZ19"/>
-    <mergeCell ref="CO25:CQ25"/>
-    <mergeCell ref="CR25:CT25"/>
-    <mergeCell ref="CU25:CW25"/>
-    <mergeCell ref="CX25:CZ25"/>
-    <mergeCell ref="CO26:CQ26"/>
-    <mergeCell ref="CR26:CT26"/>
-    <mergeCell ref="CU26:CW26"/>
-    <mergeCell ref="CX26:CZ26"/>
-    <mergeCell ref="CO20:CQ20"/>
-    <mergeCell ref="CR20:CT20"/>
-    <mergeCell ref="CU20:CW20"/>
-    <mergeCell ref="CX20:CZ20"/>
-    <mergeCell ref="CO21:CQ21"/>
-    <mergeCell ref="CR21:CT21"/>
-    <mergeCell ref="CU21:CW21"/>
-    <mergeCell ref="CX21:CZ21"/>
-    <mergeCell ref="CO22:CQ22"/>
-    <mergeCell ref="CR22:CT22"/>
-    <mergeCell ref="CU22:CW22"/>
-    <mergeCell ref="CX22:CZ22"/>
-    <mergeCell ref="CO33:CQ33"/>
-    <mergeCell ref="CR33:CT33"/>
-    <mergeCell ref="CU33:CW33"/>
-    <mergeCell ref="CX33:CZ33"/>
-    <mergeCell ref="CO34:CQ34"/>
-    <mergeCell ref="CR34:CT34"/>
-    <mergeCell ref="CU34:CW34"/>
-    <mergeCell ref="CX34:CZ34"/>
-    <mergeCell ref="CR27:CT27"/>
-    <mergeCell ref="CU27:CW27"/>
-    <mergeCell ref="CX27:CZ27"/>
-    <mergeCell ref="CO29:CQ29"/>
-    <mergeCell ref="CR29:CT29"/>
-    <mergeCell ref="CU29:CW29"/>
-    <mergeCell ref="CX29:CZ29"/>
-    <mergeCell ref="CO30:CQ30"/>
-    <mergeCell ref="CR30:CT30"/>
-    <mergeCell ref="CU30:CW30"/>
-    <mergeCell ref="CX30:CZ30"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="CU40:CW40"/>
-    <mergeCell ref="CO38:CQ38"/>
-    <mergeCell ref="CR38:CT38"/>
-    <mergeCell ref="CU38:CW38"/>
-    <mergeCell ref="CO35:CQ35"/>
-    <mergeCell ref="CR35:CT35"/>
-    <mergeCell ref="CU35:CW35"/>
-    <mergeCell ref="CO36:CQ36"/>
-    <mergeCell ref="CR36:CT36"/>
-    <mergeCell ref="CU36:CW36"/>
-    <mergeCell ref="CO37:CQ37"/>
-    <mergeCell ref="CR37:CT37"/>
-    <mergeCell ref="CU37:CW37"/>
-    <mergeCell ref="CO31:CQ31"/>
-    <mergeCell ref="CR31:CT31"/>
-    <mergeCell ref="CU31:CW31"/>
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AM14:AO14"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AM15:AO15"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AM16:AO16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="CO43:CQ43"/>
-    <mergeCell ref="CR43:CT43"/>
-    <mergeCell ref="CU43:CW43"/>
-    <mergeCell ref="CX43:CZ43"/>
-    <mergeCell ref="CO44:CQ44"/>
-    <mergeCell ref="CR44:CT44"/>
-    <mergeCell ref="CU44:CW44"/>
-    <mergeCell ref="CX44:CZ44"/>
-    <mergeCell ref="CX40:CZ40"/>
-    <mergeCell ref="CO41:CQ41"/>
-    <mergeCell ref="CR41:CT41"/>
-    <mergeCell ref="CU41:CW41"/>
-    <mergeCell ref="CX41:CZ41"/>
-    <mergeCell ref="CO42:CQ42"/>
-    <mergeCell ref="CR42:CT42"/>
-    <mergeCell ref="CU42:CW42"/>
-    <mergeCell ref="CX42:CZ42"/>
-    <mergeCell ref="CX38:CZ38"/>
-    <mergeCell ref="CX35:CZ35"/>
-    <mergeCell ref="CX36:CZ36"/>
-    <mergeCell ref="CX37:CZ37"/>
-    <mergeCell ref="CX31:CZ31"/>
-    <mergeCell ref="AM22:AO22"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AM23:AO23"/>
-    <mergeCell ref="AP23:AR23"/>
-    <mergeCell ref="AM24:AO24"/>
-    <mergeCell ref="AP24:AR24"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="AP25:AR25"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="AP26:AR26"/>
-    <mergeCell ref="AM17:AO17"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="AP19:AR19"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AP20:AR20"/>
-    <mergeCell ref="AM21:AO21"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AM40:AO40"/>
-    <mergeCell ref="AP40:AR40"/>
-    <mergeCell ref="AM41:AO41"/>
-    <mergeCell ref="AP41:AR41"/>
-    <mergeCell ref="AM42:AO42"/>
-    <mergeCell ref="AP42:AR42"/>
-    <mergeCell ref="AM27:AO27"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AM29:AO29"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AM30:AO30"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AM31:AO31"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AM33:AO33"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="AP37:AR37"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="AY7:BA7"/>
-    <mergeCell ref="AY8:BA8"/>
-    <mergeCell ref="AY9:BA9"/>
-    <mergeCell ref="AY10:BA10"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="AY13:BA13"/>
-    <mergeCell ref="AY14:BA14"/>
-    <mergeCell ref="AY15:BA15"/>
-    <mergeCell ref="AY16:BA16"/>
-    <mergeCell ref="AY17:BA17"/>
-    <mergeCell ref="AY18:BA18"/>
-    <mergeCell ref="AY19:BA19"/>
-    <mergeCell ref="AY20:BA20"/>
-    <mergeCell ref="BB24:BD24"/>
-    <mergeCell ref="BB25:BD25"/>
-    <mergeCell ref="AY35:BA35"/>
-    <mergeCell ref="AY36:BA36"/>
-    <mergeCell ref="AY37:BA37"/>
-    <mergeCell ref="AY38:BA38"/>
-    <mergeCell ref="AY40:BA40"/>
-    <mergeCell ref="AY41:BA41"/>
-    <mergeCell ref="AY42:BA42"/>
-    <mergeCell ref="AY24:BA24"/>
-    <mergeCell ref="AY25:BA25"/>
-    <mergeCell ref="AY26:BA26"/>
-    <mergeCell ref="AY27:BA27"/>
-    <mergeCell ref="AY29:BA29"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="AY31:BA31"/>
-    <mergeCell ref="AY33:BA33"/>
-    <mergeCell ref="AY34:BA34"/>
-    <mergeCell ref="AY28:BA28"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BB7:BD7"/>
-    <mergeCell ref="BB8:BD8"/>
-    <mergeCell ref="BB9:BD9"/>
-    <mergeCell ref="BB10:BD10"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="BB12:BD12"/>
-    <mergeCell ref="BB13:BD13"/>
-    <mergeCell ref="BB14:BD14"/>
-    <mergeCell ref="BB15:BD15"/>
-    <mergeCell ref="BB16:BD16"/>
-    <mergeCell ref="BB17:BD17"/>
-    <mergeCell ref="BB18:BD18"/>
-    <mergeCell ref="BB19:BD19"/>
-    <mergeCell ref="BB20:BD20"/>
-    <mergeCell ref="AJ39:AL39"/>
-    <mergeCell ref="AM39:AO39"/>
-    <mergeCell ref="AP39:AR39"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AV39:AX39"/>
-    <mergeCell ref="AY39:BA39"/>
-    <mergeCell ref="BB39:BD39"/>
-    <mergeCell ref="BB37:BD37"/>
-    <mergeCell ref="BB38:BD38"/>
-    <mergeCell ref="BB40:BD40"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="BB42:BD42"/>
-    <mergeCell ref="BB43:BD43"/>
-    <mergeCell ref="BB44:BD44"/>
-    <mergeCell ref="BB26:BD26"/>
-    <mergeCell ref="BB27:BD27"/>
-    <mergeCell ref="BB29:BD29"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="BB31:BD31"/>
-    <mergeCell ref="BB33:BD33"/>
-    <mergeCell ref="BB34:BD34"/>
-    <mergeCell ref="BB35:BD35"/>
-    <mergeCell ref="BB36:BD36"/>
-    <mergeCell ref="BB28:BD28"/>
-    <mergeCell ref="AY43:BA43"/>
-    <mergeCell ref="AY44:BA44"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="AP43:AR43"/>
-    <mergeCell ref="AM44:AO44"/>
-    <mergeCell ref="AP44:AR44"/>
-    <mergeCell ref="AM38:AO38"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="CO39:CQ39"/>
-    <mergeCell ref="CR39:CT39"/>
-    <mergeCell ref="CU39:CW39"/>
-    <mergeCell ref="CX39:CZ39"/>
-    <mergeCell ref="DA39:DQ39"/>
-    <mergeCell ref="BE39:BG39"/>
-    <mergeCell ref="BH39:BJ39"/>
-    <mergeCell ref="BK39:BM39"/>
-    <mergeCell ref="BN39:BP39"/>
-    <mergeCell ref="BQ39:BS39"/>
-    <mergeCell ref="BT39:BV39"/>
-    <mergeCell ref="BW39:BY39"/>
-    <mergeCell ref="BZ39:CB39"/>
-    <mergeCell ref="CC39:CE39"/>
-    <mergeCell ref="DA28:DQ28"/>
-    <mergeCell ref="C5:G28"/>
-    <mergeCell ref="DA3:DQ4"/>
-    <mergeCell ref="CF28:CH28"/>
-    <mergeCell ref="CI28:CK28"/>
-    <mergeCell ref="CL28:CN28"/>
-    <mergeCell ref="CO28:CQ28"/>
-    <mergeCell ref="CR28:CT28"/>
-    <mergeCell ref="CU28:CW28"/>
-    <mergeCell ref="CX28:CZ28"/>
-    <mergeCell ref="BE28:BG28"/>
-    <mergeCell ref="BH28:BJ28"/>
-    <mergeCell ref="BK28:BM28"/>
-    <mergeCell ref="BN28:BP28"/>
-    <mergeCell ref="BQ28:BS28"/>
-    <mergeCell ref="BT28:BV28"/>
-    <mergeCell ref="BW28:BY28"/>
-    <mergeCell ref="BZ28:CB28"/>
-    <mergeCell ref="CC28:CE28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AI28"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AO28"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="AV28:AX28"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="AM3:CW3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AV32:AX32"/>
+    <mergeCell ref="AY32:BA32"/>
+    <mergeCell ref="BB32:BD32"/>
+    <mergeCell ref="BE32:BG32"/>
+    <mergeCell ref="BH32:BJ32"/>
+    <mergeCell ref="BK32:BM32"/>
+    <mergeCell ref="BN32:BP32"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="BQ32:BS32"/>
+    <mergeCell ref="BT32:BV32"/>
+    <mergeCell ref="BW32:BY32"/>
+    <mergeCell ref="BZ32:CB32"/>
+    <mergeCell ref="CC32:CE32"/>
+    <mergeCell ref="CF32:CH32"/>
+    <mergeCell ref="CI32:CK32"/>
+    <mergeCell ref="CL32:CN32"/>
+    <mergeCell ref="CO32:CQ32"/>
+    <mergeCell ref="CR32:CT32"/>
+    <mergeCell ref="CU32:CW32"/>
+    <mergeCell ref="CX32:CZ32"/>
+    <mergeCell ref="DA32:DQ32"/>
+    <mergeCell ref="C29:G32"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="O5:CZ44">
